--- a/12_Site_Selection.xlsx
+++ b/12_Site_Selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.uws.edu.au\dfshare\HomesCMB$\90957135\My Documents\ABS_FIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.uws.edu.au\dfshare\HomesCMB$\90957135\My Documents\ABS_FIRE\ABS_FIRE_MYCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C40D6990-197D-4E34-AD55-1515AE3AC8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7DD67C-668E-4AAB-9D2C-49C2AB39C185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4A488468-6DF1-4AB4-B3B7-620A21CB4DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4A488468-6DF1-4AB4-B3B7-620A21CB4DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1108,5 +1108,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>